--- a/data/pca/factorExposure/factorExposure_2009-12-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003822333303383588</v>
+        <v>0.01701677378204681</v>
       </c>
       <c r="C2">
-        <v>0.009733617842828954</v>
+        <v>-0.001085009625719332</v>
       </c>
       <c r="D2">
-        <v>0.001791186367033137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006838915616192117</v>
+      </c>
+      <c r="E2">
+        <v>0.0001733382345154664</v>
+      </c>
+      <c r="F2">
+        <v>0.01113844167355459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03124535380094379</v>
+        <v>0.09364447516336064</v>
       </c>
       <c r="C4">
-        <v>0.119586945946219</v>
+        <v>-0.01518190043944409</v>
       </c>
       <c r="D4">
-        <v>-0.02276272289251918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08421696475726036</v>
+      </c>
+      <c r="E4">
+        <v>-0.02824913978079854</v>
+      </c>
+      <c r="F4">
+        <v>-0.03061822861145441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0399762064180008</v>
+        <v>0.1569781054694491</v>
       </c>
       <c r="C6">
-        <v>0.1146784084505578</v>
+        <v>-0.02512955185511483</v>
       </c>
       <c r="D6">
-        <v>0.03639137086462692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02111511567174909</v>
+      </c>
+      <c r="E6">
+        <v>-0.009504694209398718</v>
+      </c>
+      <c r="F6">
+        <v>-0.04582857093856526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01144526624725779</v>
+        <v>0.06261018596068094</v>
       </c>
       <c r="C7">
-        <v>0.08397243031567644</v>
+        <v>0.001694017969088591</v>
       </c>
       <c r="D7">
-        <v>0.001259091506805517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05345198777518009</v>
+      </c>
+      <c r="E7">
+        <v>-0.01007430157731486</v>
+      </c>
+      <c r="F7">
+        <v>-0.04813565721189527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-6.265192317943288e-05</v>
+        <v>0.05705329767782754</v>
       </c>
       <c r="C8">
-        <v>0.07256208390882604</v>
+        <v>0.01377765221670048</v>
       </c>
       <c r="D8">
-        <v>0.03051985929282834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03453324433067586</v>
+      </c>
+      <c r="E8">
+        <v>-0.01772666430151626</v>
+      </c>
+      <c r="F8">
+        <v>0.02759826202797705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02588275058338588</v>
+        <v>0.0711383910010808</v>
       </c>
       <c r="C9">
-        <v>0.09822787498637796</v>
+        <v>-0.01081591009666611</v>
       </c>
       <c r="D9">
-        <v>-0.02984106018548996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08631985910344551</v>
+      </c>
+      <c r="E9">
+        <v>-0.0229574715613035</v>
+      </c>
+      <c r="F9">
+        <v>-0.04736415571251054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01259196056037984</v>
+        <v>0.09583203738704668</v>
       </c>
       <c r="C10">
-        <v>0.02488018460505392</v>
+        <v>-0.02090719187582613</v>
       </c>
       <c r="D10">
-        <v>0.1208556454856925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1717252122361294</v>
+      </c>
+      <c r="E10">
+        <v>0.03621266070412942</v>
+      </c>
+      <c r="F10">
+        <v>0.05396725711023675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03074551000458538</v>
+        <v>0.08788120937491177</v>
       </c>
       <c r="C11">
-        <v>0.1033689718815044</v>
+        <v>-0.01037183888740793</v>
       </c>
       <c r="D11">
-        <v>-0.03281942190145002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1154514955350228</v>
+      </c>
+      <c r="E11">
+        <v>-0.0455062694236811</v>
+      </c>
+      <c r="F11">
+        <v>-0.02181582651166241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02839137113253738</v>
+        <v>0.09212807215342536</v>
       </c>
       <c r="C12">
-        <v>0.1145583012757996</v>
+        <v>-0.007482780268490849</v>
       </c>
       <c r="D12">
-        <v>-0.03047780592659992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1313501113892257</v>
+      </c>
+      <c r="E12">
+        <v>-0.0473258281190753</v>
+      </c>
+      <c r="F12">
+        <v>-0.02595724360736152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01013728474307721</v>
+        <v>0.04170056810655592</v>
       </c>
       <c r="C13">
-        <v>0.04372584658736417</v>
+        <v>-0.002810620656903631</v>
       </c>
       <c r="D13">
-        <v>-0.02056715452206011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05293653106107856</v>
+      </c>
+      <c r="E13">
+        <v>0.007813588283841648</v>
+      </c>
+      <c r="F13">
+        <v>-0.002528610108576892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01606803953411539</v>
+        <v>0.02278968351246404</v>
       </c>
       <c r="C14">
-        <v>0.02213818165179133</v>
+        <v>-0.01372383616361938</v>
       </c>
       <c r="D14">
-        <v>0.003448957592082861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0330103537580034</v>
+      </c>
+      <c r="E14">
+        <v>-0.01716044734632244</v>
+      </c>
+      <c r="F14">
+        <v>-0.01414119384784325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01078164781101122</v>
+        <v>0.03287975561708566</v>
       </c>
       <c r="C15">
-        <v>0.02741417684333874</v>
+        <v>-0.004749406133407686</v>
       </c>
       <c r="D15">
-        <v>-0.01101464280839818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04520394924893378</v>
+      </c>
+      <c r="E15">
+        <v>-0.00626979491623899</v>
+      </c>
+      <c r="F15">
+        <v>-0.0227359079124534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.02026834042915788</v>
+        <v>0.0741061010335249</v>
       </c>
       <c r="C16">
-        <v>0.1088020701115392</v>
+        <v>-0.001491757562576551</v>
       </c>
       <c r="D16">
-        <v>-0.01234393385038598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1250491076824111</v>
+      </c>
+      <c r="E16">
+        <v>-0.06140491746632661</v>
+      </c>
+      <c r="F16">
+        <v>-0.02459268421006559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03166596583197779</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003441019711217722</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01945640562896151</v>
+      </c>
+      <c r="E18">
+        <v>0.007330446181634058</v>
+      </c>
+      <c r="F18">
+        <v>0.003269248106676816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0128589740287938</v>
+        <v>0.06098218918673891</v>
       </c>
       <c r="C20">
-        <v>0.06565343718547803</v>
+        <v>-6.938648596070747e-05</v>
       </c>
       <c r="D20">
-        <v>0.002779237378692237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07716299757501185</v>
+      </c>
+      <c r="E20">
+        <v>-0.05543999882081691</v>
+      </c>
+      <c r="F20">
+        <v>-0.02328366384705201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01353792252190985</v>
+        <v>0.04035528882530378</v>
       </c>
       <c r="C21">
-        <v>0.02439859529677245</v>
+        <v>-0.00628348669520694</v>
       </c>
       <c r="D21">
-        <v>0.0002525490806831867</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03742445727958793</v>
+      </c>
+      <c r="E21">
+        <v>0.005672742423315799</v>
+      </c>
+      <c r="F21">
+        <v>0.02374953944732351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.005582193844162074</v>
+        <v>0.04369136684030744</v>
       </c>
       <c r="C22">
-        <v>0.0292477021519901</v>
+        <v>-0.0007463151592353563</v>
       </c>
       <c r="D22">
-        <v>0.03867661503104723</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00339520831716963</v>
+      </c>
+      <c r="E22">
+        <v>-0.02945863212219555</v>
+      </c>
+      <c r="F22">
+        <v>0.03517854688147383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.005569437235363208</v>
+        <v>0.04367693208106833</v>
       </c>
       <c r="C23">
-        <v>0.02918386748484752</v>
+        <v>-0.0007420131518083902</v>
       </c>
       <c r="D23">
-        <v>0.03876038434256111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003400072824089767</v>
+      </c>
+      <c r="E23">
+        <v>-0.02966021610087417</v>
+      </c>
+      <c r="F23">
+        <v>0.03514157497341275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01992579559897492</v>
+        <v>0.08019062414089764</v>
       </c>
       <c r="C24">
-        <v>0.1101578150513076</v>
+        <v>-0.001964504100014069</v>
       </c>
       <c r="D24">
-        <v>-0.02771376607391591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1200797758650486</v>
+      </c>
+      <c r="E24">
+        <v>-0.04873769232667179</v>
+      </c>
+      <c r="F24">
+        <v>-0.02620326648367122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02599760686914501</v>
+        <v>0.08520907987719883</v>
       </c>
       <c r="C25">
-        <v>0.1117116244408216</v>
+        <v>-0.004245363181813402</v>
       </c>
       <c r="D25">
-        <v>-0.02078675106918802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1087092350137119</v>
+      </c>
+      <c r="E25">
+        <v>-0.03217502087736215</v>
+      </c>
+      <c r="F25">
+        <v>-0.02689132072231168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02454937129075259</v>
+        <v>0.05792861779945836</v>
       </c>
       <c r="C26">
-        <v>0.04900765136250262</v>
+        <v>-0.01432034417252791</v>
       </c>
       <c r="D26">
-        <v>0.01538901190245467</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03957596874459623</v>
+      </c>
+      <c r="E26">
+        <v>-0.0274727628602337</v>
+      </c>
+      <c r="F26">
+        <v>0.009117841002580177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.007114275194939018</v>
+        <v>0.1403193489292985</v>
       </c>
       <c r="C28">
-        <v>0.03494385639785939</v>
+        <v>-0.02014414803337079</v>
       </c>
       <c r="D28">
-        <v>0.1856954250543645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2617567118675903</v>
+      </c>
+      <c r="E28">
+        <v>0.06717371822087324</v>
+      </c>
+      <c r="F28">
+        <v>-0.0102161798165488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01306200646055345</v>
+        <v>0.02765276650698279</v>
       </c>
       <c r="C29">
-        <v>0.0278004460881865</v>
+        <v>-0.008101614302634209</v>
       </c>
       <c r="D29">
-        <v>0.007061373098647215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03204036503699392</v>
+      </c>
+      <c r="E29">
+        <v>-0.01126107881997191</v>
+      </c>
+      <c r="F29">
+        <v>0.01041405523494984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01653930276178041</v>
+        <v>0.06128185314194354</v>
       </c>
       <c r="C30">
-        <v>0.1305249601299253</v>
+        <v>-0.00313892923140415</v>
       </c>
       <c r="D30">
-        <v>-0.02023326623504071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08902573775425104</v>
+      </c>
+      <c r="E30">
+        <v>-0.01923815155406294</v>
+      </c>
+      <c r="F30">
+        <v>-0.0837975093947549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02191874199144659</v>
+        <v>0.04998985182321385</v>
       </c>
       <c r="C31">
-        <v>0.0357300193270896</v>
+        <v>-0.01512111225217291</v>
       </c>
       <c r="D31">
-        <v>0.001050959376694603</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02512331598844255</v>
+      </c>
+      <c r="E31">
+        <v>-0.02751172060482113</v>
+      </c>
+      <c r="F31">
+        <v>0.002352319285826753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008694958178690633</v>
+        <v>0.05025365178948195</v>
       </c>
       <c r="C32">
-        <v>0.06088467639160383</v>
+        <v>0.001670829069345473</v>
       </c>
       <c r="D32">
-        <v>0.02867612462218716</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03568514928802697</v>
+      </c>
+      <c r="E32">
+        <v>-0.03051957049392861</v>
+      </c>
+      <c r="F32">
+        <v>-0.003173289673862687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02296308578518481</v>
+        <v>0.08937487203013587</v>
       </c>
       <c r="C33">
-        <v>0.1133660337317832</v>
+        <v>-0.00753618642199985</v>
       </c>
       <c r="D33">
-        <v>-0.02662421789493429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09920996059244191</v>
+      </c>
+      <c r="E33">
+        <v>-0.0439530895945515</v>
+      </c>
+      <c r="F33">
+        <v>-0.03561907234507596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02746101096485891</v>
+        <v>0.06847215882864013</v>
       </c>
       <c r="C34">
-        <v>0.09237935117189891</v>
+        <v>-0.01058054424707771</v>
       </c>
       <c r="D34">
-        <v>-0.01842385206055037</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1065095999814938</v>
+      </c>
+      <c r="E34">
+        <v>-0.03434956045938088</v>
+      </c>
+      <c r="F34">
+        <v>-0.03409264867686651</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003974042074951819</v>
+        <v>0.02421311450433474</v>
       </c>
       <c r="C35">
-        <v>0.01489533923043127</v>
+        <v>-0.002404246659178804</v>
       </c>
       <c r="D35">
-        <v>-0.001543605267767806</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01155525827754558</v>
+      </c>
+      <c r="E35">
+        <v>-0.0116078662037679</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009565272932862723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01130315481644239</v>
+        <v>0.0278020723362121</v>
       </c>
       <c r="C36">
-        <v>0.02784696511214316</v>
+        <v>-0.006994151462583226</v>
       </c>
       <c r="D36">
-        <v>-0.005760033247551873</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03886221951421158</v>
+      </c>
+      <c r="E36">
+        <v>-0.01569428397479174</v>
+      </c>
+      <c r="F36">
+        <v>-0.01490518682318903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003674607928883485</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.464905352463386e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.000522885785039637</v>
+      </c>
+      <c r="E37">
+        <v>0.0004761462330511931</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006920588173416366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006687250694376812</v>
+        <v>0.001566025686565691</v>
       </c>
       <c r="C38">
-        <v>0.004452342646444218</v>
+        <v>-0.0002619580094336717</v>
       </c>
       <c r="D38">
-        <v>0.00297375994974215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0001280948957895317</v>
+      </c>
+      <c r="E38">
+        <v>-0.0005681530677432648</v>
+      </c>
+      <c r="F38">
+        <v>0.0008397677427129253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04361690732193758</v>
+        <v>0.1055683204044761</v>
       </c>
       <c r="C39">
-        <v>0.1644452419688238</v>
+        <v>-0.01553174841473296</v>
       </c>
       <c r="D39">
-        <v>-0.04997463513597059</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538863656864689</v>
+      </c>
+      <c r="E39">
+        <v>-0.05902258254348647</v>
+      </c>
+      <c r="F39">
+        <v>-0.02889168711056486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01133461768363583</v>
+        <v>0.04104085626008112</v>
       </c>
       <c r="C40">
-        <v>0.01370975497115429</v>
+        <v>-0.006677460754039218</v>
       </c>
       <c r="D40">
-        <v>0.008595709279024413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03257528395583006</v>
+      </c>
+      <c r="E40">
+        <v>-0.003517134167418558</v>
+      </c>
+      <c r="F40">
+        <v>0.01536927268648234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01161562394955809</v>
+        <v>0.02788090649692013</v>
       </c>
       <c r="C41">
-        <v>0.01929467718218604</v>
+        <v>-0.006714366563986409</v>
       </c>
       <c r="D41">
-        <v>0.01544400874492699</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01038623782608968</v>
+      </c>
+      <c r="E41">
+        <v>-0.01239978372620507</v>
+      </c>
+      <c r="F41">
+        <v>0.006649768286434782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01363164069780005</v>
+        <v>0.040798505147884</v>
       </c>
       <c r="C43">
-        <v>0.0279643822469381</v>
+        <v>-0.006732429630622268</v>
       </c>
       <c r="D43">
-        <v>0.01170662745394021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0199268012038835</v>
+      </c>
+      <c r="E43">
+        <v>-0.02471568426126095</v>
+      </c>
+      <c r="F43">
+        <v>0.01284843357900754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0331727793288625</v>
+        <v>0.08041787770489876</v>
       </c>
       <c r="C44">
-        <v>0.1293367102509598</v>
+        <v>-0.01979556670955105</v>
       </c>
       <c r="D44">
-        <v>0.0004326955325105938</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09832083511044859</v>
+      </c>
+      <c r="E44">
+        <v>-0.06598133191250674</v>
+      </c>
+      <c r="F44">
+        <v>-0.156867283176249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005583457568666396</v>
+        <v>0.02338282122793512</v>
       </c>
       <c r="C46">
-        <v>0.00629632012299098</v>
+        <v>-0.003447363717125479</v>
       </c>
       <c r="D46">
-        <v>0.01939575145939668</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01311452162312205</v>
+      </c>
+      <c r="E46">
+        <v>-0.02237474352600822</v>
+      </c>
+      <c r="F46">
+        <v>0.005127060767153285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01093718076313187</v>
+        <v>0.05130958208103622</v>
       </c>
       <c r="C47">
-        <v>0.031955027621116</v>
+        <v>-0.003288545258449842</v>
       </c>
       <c r="D47">
-        <v>0.02643294442788818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01424154411569912</v>
+      </c>
+      <c r="E47">
+        <v>-0.02356698328028849</v>
+      </c>
+      <c r="F47">
+        <v>0.03378287840335306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01243552646772658</v>
+        <v>0.04972931821530371</v>
       </c>
       <c r="C48">
-        <v>0.04832604648998503</v>
+        <v>-0.002164384455317073</v>
       </c>
       <c r="D48">
-        <v>-0.01605761558175001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.049843865381216</v>
+      </c>
+      <c r="E48">
+        <v>0.006557758473527285</v>
+      </c>
+      <c r="F48">
+        <v>-0.009627140446238617</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04122385367318592</v>
+        <v>0.1997117215791129</v>
       </c>
       <c r="C49">
-        <v>0.2205357038551928</v>
+        <v>-0.01844849987146986</v>
       </c>
       <c r="D49">
-        <v>0.06452206186707973</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00710368207292331</v>
+      </c>
+      <c r="E49">
+        <v>-0.03159231329726849</v>
+      </c>
+      <c r="F49">
+        <v>-0.03904741315654543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01874714929957015</v>
+        <v>0.05078054353952811</v>
       </c>
       <c r="C50">
-        <v>0.03999495521110611</v>
+        <v>-0.01113597746325111</v>
       </c>
       <c r="D50">
-        <v>0.008298420312382055</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02354958102939696</v>
+      </c>
+      <c r="E50">
+        <v>-0.02928786335764126</v>
+      </c>
+      <c r="F50">
+        <v>-0.009010876634988209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0003904708704203455</v>
+        <v>0.0006753122856274447</v>
       </c>
       <c r="C51">
-        <v>0.001549545465541104</v>
+        <v>-0.0001881444324095784</v>
       </c>
       <c r="D51">
-        <v>0.00167245150235833</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0002087452634558354</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001372708677730667</v>
+      </c>
+      <c r="F51">
+        <v>-0.002835885211461618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03272721340271928</v>
+        <v>0.1463762812961263</v>
       </c>
       <c r="C52">
-        <v>0.1511022846902724</v>
+        <v>-0.01537536901319988</v>
       </c>
       <c r="D52">
-        <v>-0.0184834342985694</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04463758641595481</v>
+      </c>
+      <c r="E52">
+        <v>-0.01998770603499319</v>
+      </c>
+      <c r="F52">
+        <v>-0.04055351697094312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03406293359446032</v>
+        <v>0.1724513434886132</v>
       </c>
       <c r="C53">
-        <v>0.174156458331957</v>
+        <v>-0.01862071622457656</v>
       </c>
       <c r="D53">
-        <v>0.0144235270934942</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005901408164530914</v>
+      </c>
+      <c r="E53">
+        <v>-0.03126112346002312</v>
+      </c>
+      <c r="F53">
+        <v>-0.07203490853507842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01637150439084003</v>
+        <v>0.02217444597901604</v>
       </c>
       <c r="C54">
-        <v>0.03947812064870018</v>
+        <v>-0.01233898459596776</v>
       </c>
       <c r="D54">
-        <v>0.007654406785761273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03419305517355639</v>
+      </c>
+      <c r="E54">
+        <v>-0.01868742249817889</v>
+      </c>
+      <c r="F54">
+        <v>0.00330272153047817</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0261158273818088</v>
+        <v>0.1139064562152927</v>
       </c>
       <c r="C55">
-        <v>0.08769402207270219</v>
+        <v>-0.01622763284877669</v>
       </c>
       <c r="D55">
-        <v>0.001885496768875776</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009671091323496183</v>
+      </c>
+      <c r="E55">
+        <v>-0.02779734653877417</v>
+      </c>
+      <c r="F55">
+        <v>-0.04626674826007765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03500236133339125</v>
+        <v>0.1771552432779659</v>
       </c>
       <c r="C56">
-        <v>0.1608449697048839</v>
+        <v>-0.01609193705989068</v>
       </c>
       <c r="D56">
-        <v>0.02425665472271769</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007742972936430878</v>
+      </c>
+      <c r="E56">
+        <v>-0.03538808169222349</v>
+      </c>
+      <c r="F56">
+        <v>-0.05028550472148378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01308906569991553</v>
+        <v>0.04637940501580173</v>
       </c>
       <c r="C58">
-        <v>0.04966304667298636</v>
+        <v>-0.0004784430895500986</v>
       </c>
       <c r="D58">
-        <v>-0.01050707235203872</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06731715999964144</v>
+      </c>
+      <c r="E58">
+        <v>-0.02747315107755874</v>
+      </c>
+      <c r="F58">
+        <v>0.03615507380939347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01600070431934413</v>
+        <v>0.1676259168998291</v>
       </c>
       <c r="C59">
-        <v>0.08961159622375643</v>
+        <v>-0.02063486583634164</v>
       </c>
       <c r="D59">
-        <v>0.1949424816536373</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2169927821175358</v>
+      </c>
+      <c r="E59">
+        <v>0.04499884657828009</v>
+      </c>
+      <c r="F59">
+        <v>0.03409514781613743</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.0306717129856242</v>
+        <v>0.2313050547541386</v>
       </c>
       <c r="C60">
-        <v>0.2769809683201521</v>
+        <v>0.003027951562556557</v>
       </c>
       <c r="D60">
-        <v>6.596733521474491e-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04202266365540842</v>
+      </c>
+      <c r="E60">
+        <v>-0.01104664607849912</v>
+      </c>
+      <c r="F60">
+        <v>0.006768031016436057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03136702869468756</v>
+        <v>0.08214833929100557</v>
       </c>
       <c r="C61">
-        <v>0.1250491704621728</v>
+        <v>-0.0115399225824791</v>
       </c>
       <c r="D61">
-        <v>-0.01497408635338189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1162446936090964</v>
+      </c>
+      <c r="E61">
+        <v>-0.03856588259034028</v>
+      </c>
+      <c r="F61">
+        <v>-0.0116299586505259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03687888167977386</v>
+        <v>0.1705451158617367</v>
       </c>
       <c r="C62">
-        <v>0.162929260310795</v>
+        <v>-0.01944901039957804</v>
       </c>
       <c r="D62">
-        <v>0.01882003739592514</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006354997218668453</v>
+      </c>
+      <c r="E62">
+        <v>-0.03456323982423468</v>
+      </c>
+      <c r="F62">
+        <v>-0.03297179602999425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01202183915886761</v>
+        <v>0.04580435067528517</v>
       </c>
       <c r="C63">
-        <v>0.05176786720113278</v>
+        <v>-0.001905102126259433</v>
       </c>
       <c r="D63">
-        <v>-0.01288049801016774</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0578713667239905</v>
+      </c>
+      <c r="E63">
+        <v>-0.02131565710792554</v>
+      </c>
+      <c r="F63">
+        <v>-0.006170780455108457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02521880200330277</v>
+        <v>0.1106650447638512</v>
       </c>
       <c r="C64">
-        <v>0.09772224379362969</v>
+        <v>-0.01093203204451237</v>
       </c>
       <c r="D64">
-        <v>0.0107272494390875</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0427213031564182</v>
+      </c>
+      <c r="E64">
+        <v>-0.02398057895139273</v>
+      </c>
+      <c r="F64">
+        <v>-0.02545719414592302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.0410861595489645</v>
+        <v>0.1476232696962767</v>
       </c>
       <c r="C65">
-        <v>0.1084174750247802</v>
+        <v>-0.03246474532692523</v>
       </c>
       <c r="D65">
-        <v>0.02673804522070387</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04104278710751848</v>
+      </c>
+      <c r="E65">
+        <v>-0.002937335696341889</v>
+      </c>
+      <c r="F65">
+        <v>-0.039207850166344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04207978720003594</v>
+        <v>0.1251408056922596</v>
       </c>
       <c r="C66">
-        <v>0.1919742049944466</v>
+        <v>-0.01361933286252206</v>
       </c>
       <c r="D66">
-        <v>-0.04230533842535782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1423031626153006</v>
+      </c>
+      <c r="E66">
+        <v>-0.06648979936064262</v>
+      </c>
+      <c r="F66">
+        <v>-0.03124511868900194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01499255025799435</v>
+        <v>0.06091038138095574</v>
       </c>
       <c r="C67">
-        <v>0.07504831704511784</v>
+        <v>-0.003107253735803561</v>
       </c>
       <c r="D67">
-        <v>-0.006738018015903654</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05509259594419429</v>
+      </c>
+      <c r="E67">
+        <v>-0.01716674839974429</v>
+      </c>
+      <c r="F67">
+        <v>0.03429513851709222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01771936965951026</v>
+        <v>0.1169303342623853</v>
       </c>
       <c r="C68">
-        <v>0.02417755328541539</v>
+        <v>-0.031298333948926</v>
       </c>
       <c r="D68">
-        <v>0.1746735997157996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2619190563874182</v>
+      </c>
+      <c r="E68">
+        <v>0.08680308983664368</v>
+      </c>
+      <c r="F68">
+        <v>-0.005408939589779492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.006348257163097669</v>
+        <v>0.03985075711290222</v>
       </c>
       <c r="C69">
-        <v>0.03441543224114705</v>
+        <v>-0.001325729106839059</v>
       </c>
       <c r="D69">
-        <v>0.007144724528631298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007307212867028247</v>
+      </c>
+      <c r="E69">
+        <v>-0.02300491611347516</v>
+      </c>
+      <c r="F69">
+        <v>0.0009102771656563202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0003045191585015745</v>
+        <v>0.06595702803235687</v>
       </c>
       <c r="C70">
-        <v>0.0349316874624399</v>
+        <v>0.02803562592655012</v>
       </c>
       <c r="D70">
-        <v>-0.0001044002112623961</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02454346606739266</v>
+      </c>
+      <c r="E70">
+        <v>0.0400210278865724</v>
+      </c>
+      <c r="F70">
+        <v>0.1858909674703903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02145914393980105</v>
+        <v>0.1366643732390875</v>
       </c>
       <c r="C71">
-        <v>0.03066662778553848</v>
+        <v>-0.0356118441107566</v>
       </c>
       <c r="D71">
-        <v>0.1852661971265728</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2737342337916407</v>
+      </c>
+      <c r="E71">
+        <v>0.09614882891911755</v>
+      </c>
+      <c r="F71">
+        <v>-0.01217632046036339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.0377916180130847</v>
+        <v>0.1421498020326671</v>
       </c>
       <c r="C72">
-        <v>0.1200641823179476</v>
+        <v>-0.02585705828322158</v>
       </c>
       <c r="D72">
-        <v>0.03794164206951178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001268430038046185</v>
+      </c>
+      <c r="E72">
+        <v>-0.03825430908145556</v>
+      </c>
+      <c r="F72">
+        <v>-0.03436458876249284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03582202755353411</v>
+        <v>0.2005294384963599</v>
       </c>
       <c r="C73">
-        <v>0.2148385920452264</v>
+        <v>-0.01207975526563425</v>
       </c>
       <c r="D73">
-        <v>0.0512729784020119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0182448679596776</v>
+      </c>
+      <c r="E73">
+        <v>-0.0648664769268662</v>
+      </c>
+      <c r="F73">
+        <v>-0.03847144476478625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02196119091799301</v>
+        <v>0.09494593662043876</v>
       </c>
       <c r="C74">
-        <v>0.1095289437778698</v>
+        <v>-0.01304028266118074</v>
       </c>
       <c r="D74">
-        <v>0.02793634031919634</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01740150133181958</v>
+      </c>
+      <c r="E74">
+        <v>-0.04409856219339249</v>
+      </c>
+      <c r="F74">
+        <v>-0.05578585827004578</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04331535476055948</v>
+        <v>0.1284305476347253</v>
       </c>
       <c r="C75">
-        <v>0.1346098199425123</v>
+        <v>-0.02749992194025264</v>
       </c>
       <c r="D75">
-        <v>0.03226761541767793</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03027713083222773</v>
+      </c>
+      <c r="E75">
+        <v>-0.05790966770357063</v>
+      </c>
+      <c r="F75">
+        <v>-0.01733742926259687</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0002435017915801463</v>
+        <v>0.0005313541627664373</v>
       </c>
       <c r="C76">
-        <v>0.001732155870361967</v>
+        <v>-0.0001565614567582942</v>
       </c>
       <c r="D76">
-        <v>0.00153041629508721</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0002470776324223847</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002481738861191397</v>
+      </c>
+      <c r="F76">
+        <v>-0.0006458718294711489</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02478043364315717</v>
+        <v>0.08548380673438674</v>
       </c>
       <c r="C77">
-        <v>0.09760352954750973</v>
+        <v>-0.007796263746711782</v>
       </c>
       <c r="D77">
-        <v>-0.05292123900774404</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1144516332783665</v>
+      </c>
+      <c r="E77">
+        <v>-0.03926776405613708</v>
+      </c>
+      <c r="F77">
+        <v>-0.03291694317280992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05495752450603925</v>
+        <v>0.09957530015915597</v>
       </c>
       <c r="C78">
-        <v>0.1387026639422556</v>
+        <v>-0.03903169906917889</v>
       </c>
       <c r="D78">
-        <v>0.01022984748015062</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1170095414580573</v>
+      </c>
+      <c r="E78">
+        <v>-0.0747296635742738</v>
+      </c>
+      <c r="F78">
+        <v>-0.04552532220970841</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03816799974852592</v>
+        <v>0.164880299456994</v>
       </c>
       <c r="C79">
-        <v>0.1449696240998661</v>
+        <v>-0.02216652804969586</v>
       </c>
       <c r="D79">
-        <v>0.03086666877667346</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01520456082399931</v>
+      </c>
+      <c r="E79">
+        <v>-0.04636980821620734</v>
+      </c>
+      <c r="F79">
+        <v>-0.01012397842293873</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.009724251181109563</v>
+        <v>0.08243803542455348</v>
       </c>
       <c r="C80">
-        <v>0.08419983040353546</v>
+        <v>0.001052088660627459</v>
       </c>
       <c r="D80">
-        <v>0.008483188285139789</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05726158453241569</v>
+      </c>
+      <c r="E80">
+        <v>-0.0369600157031301</v>
+      </c>
+      <c r="F80">
+        <v>0.02374997710202867</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04521964837615181</v>
+        <v>0.1218423611746045</v>
       </c>
       <c r="C81">
-        <v>0.1388413294986985</v>
+        <v>-0.03153315172266028</v>
       </c>
       <c r="D81">
-        <v>0.01791451912671997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01585679623540055</v>
+      </c>
+      <c r="E81">
+        <v>-0.05752061294785265</v>
+      </c>
+      <c r="F81">
+        <v>-0.01563344795337792</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04021547592307836</v>
+        <v>0.1665810601746404</v>
       </c>
       <c r="C82">
-        <v>0.1650694125459264</v>
+        <v>-0.02391847635561901</v>
       </c>
       <c r="D82">
-        <v>0.02609914916048555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003743481533217762</v>
+      </c>
+      <c r="E82">
+        <v>-0.02762948312126226</v>
+      </c>
+      <c r="F82">
+        <v>-0.07888851070804263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01776569247903719</v>
+        <v>0.06062005693653784</v>
       </c>
       <c r="C83">
-        <v>0.07203747094477651</v>
+        <v>-0.002823894640724374</v>
       </c>
       <c r="D83">
-        <v>-0.002128478951256731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05051943854079965</v>
+      </c>
+      <c r="E83">
+        <v>-0.004836183916576776</v>
+      </c>
+      <c r="F83">
+        <v>0.03158200241091046</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02652593940823017</v>
+        <v>0.05837013338378602</v>
       </c>
       <c r="C84">
-        <v>0.07540345700773864</v>
+        <v>-0.01086067005588374</v>
       </c>
       <c r="D84">
-        <v>-0.0270013521118612</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06433063504921843</v>
+      </c>
+      <c r="E84">
+        <v>-0.006749934574374354</v>
+      </c>
+      <c r="F84">
+        <v>-0.003810637221582216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03970464437437594</v>
+        <v>0.1368212647866956</v>
       </c>
       <c r="C85">
-        <v>0.1200525773399006</v>
+        <v>-0.0275029767526898</v>
       </c>
       <c r="D85">
-        <v>0.01732702850608986</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01081908822814756</v>
+      </c>
+      <c r="E85">
+        <v>-0.03853559996786384</v>
+      </c>
+      <c r="F85">
+        <v>-0.04453151145242221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01238019145751547</v>
+        <v>0.09362984024370488</v>
       </c>
       <c r="C86">
-        <v>0.08951123174016992</v>
+        <v>0.006490205026101893</v>
       </c>
       <c r="D86">
-        <v>0.1976004122819225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04193899857295987</v>
+      </c>
+      <c r="E86">
+        <v>-0.212263979234998</v>
+      </c>
+      <c r="F86">
+        <v>0.9083487763077319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03937820316257433</v>
+        <v>0.09673463717753084</v>
       </c>
       <c r="C87">
-        <v>0.1025270812121159</v>
+        <v>-0.01940129202205758</v>
       </c>
       <c r="D87">
-        <v>-0.05863893878360214</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09665213178680143</v>
+      </c>
+      <c r="E87">
+        <v>0.05036892277045627</v>
+      </c>
+      <c r="F87">
+        <v>-0.05372282842962662</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01409466242731042</v>
+        <v>0.06101052858231232</v>
       </c>
       <c r="C88">
-        <v>0.06129828495181119</v>
+        <v>-0.002120174555872656</v>
       </c>
       <c r="D88">
-        <v>-0.002524586905861506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04953584658786174</v>
+      </c>
+      <c r="E88">
+        <v>-0.02448147024994641</v>
+      </c>
+      <c r="F88">
+        <v>-0.01192356256264279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.002779236917307587</v>
+        <v>0.1340150563103663</v>
       </c>
       <c r="C89">
-        <v>0.0490640642940186</v>
+        <v>-0.01311927190222934</v>
       </c>
       <c r="D89">
-        <v>0.2163145948620106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2514027636873499</v>
+      </c>
+      <c r="E89">
+        <v>0.09037188057304582</v>
+      </c>
+      <c r="F89">
+        <v>0.007653581896585875</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01992111037657051</v>
+        <v>0.1500903075392669</v>
       </c>
       <c r="C90">
-        <v>0.03374667617947506</v>
+        <v>-0.03175173553428861</v>
       </c>
       <c r="D90">
-        <v>0.1919109398559812</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2691560850337895</v>
+      </c>
+      <c r="E90">
+        <v>0.1114538376988362</v>
+      </c>
+      <c r="F90">
+        <v>0.001376451980087452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02508708322695062</v>
+        <v>0.1204898427174488</v>
       </c>
       <c r="C91">
-        <v>0.1005028481096962</v>
+        <v>-0.01861548240266598</v>
       </c>
       <c r="D91">
-        <v>0.02286425162131421</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01289590382665461</v>
+      </c>
+      <c r="E91">
+        <v>-0.05610276862996919</v>
+      </c>
+      <c r="F91">
+        <v>0.003538424143874094</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.005476862519318801</v>
+        <v>0.1474617694774195</v>
       </c>
       <c r="C92">
-        <v>0.04617860569910603</v>
+        <v>-0.02331969616735701</v>
       </c>
       <c r="D92">
-        <v>0.2056724743934589</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911774707929499</v>
+      </c>
+      <c r="E92">
+        <v>0.09989447351608184</v>
+      </c>
+      <c r="F92">
+        <v>0.01298726398585752</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01777983974965093</v>
+        <v>0.1519090246734857</v>
       </c>
       <c r="C93">
-        <v>0.04876300048163025</v>
+        <v>-0.02768570530539514</v>
       </c>
       <c r="D93">
-        <v>0.2160267121027999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2689326816248708</v>
+      </c>
+      <c r="E93">
+        <v>0.07683426064238565</v>
+      </c>
+      <c r="F93">
+        <v>-0.002836760458090665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04215054598045529</v>
+        <v>0.1311491166839046</v>
       </c>
       <c r="C94">
-        <v>0.1499712043472074</v>
+        <v>-0.02448951543884205</v>
       </c>
       <c r="D94">
-        <v>0.01529022547517814</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04233987555352237</v>
+      </c>
+      <c r="E94">
+        <v>-0.05740615734284381</v>
+      </c>
+      <c r="F94">
+        <v>-0.03514966017532612</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02691233023387771</v>
+        <v>0.1274413166668289</v>
       </c>
       <c r="C95">
-        <v>0.141635754517633</v>
+        <v>-0.00354350181237698</v>
       </c>
       <c r="D95">
-        <v>-0.02117715245763734</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0915960052964926</v>
+      </c>
+      <c r="E95">
+        <v>-0.0466294610124883</v>
+      </c>
+      <c r="F95">
+        <v>0.006658157571118578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9729672490107142</v>
+        <v>0.1045908027593399</v>
       </c>
       <c r="C96">
-        <v>0.2125069685936528</v>
+        <v>0.9877154661365363</v>
       </c>
       <c r="D96">
-        <v>0.02732368341947842</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04760413295413375</v>
+      </c>
+      <c r="E96">
+        <v>-0.05554897788871183</v>
+      </c>
+      <c r="F96">
+        <v>-0.0422291405943482</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.0054604553859995</v>
+        <v>0.1931531835886335</v>
       </c>
       <c r="C97">
-        <v>0.1525436589778762</v>
+        <v>0.007702299707355548</v>
       </c>
       <c r="D97">
-        <v>0.0652560717740929</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01795560535940629</v>
+      </c>
+      <c r="E97">
+        <v>-0.01786705273844835</v>
+      </c>
+      <c r="F97">
+        <v>0.09221166373984298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02894592051657359</v>
+        <v>0.2041895396673984</v>
       </c>
       <c r="C98">
-        <v>0.199752775929604</v>
+        <v>-0.006783682002880112</v>
       </c>
       <c r="D98">
-        <v>0.0214519077628385</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01362101980766253</v>
+      </c>
+      <c r="E98">
+        <v>0.08377615966568938</v>
+      </c>
+      <c r="F98">
+        <v>0.0936892216492221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.00501669273366719</v>
+        <v>0.05564847581557986</v>
       </c>
       <c r="C99">
-        <v>0.06204053016274919</v>
+        <v>0.004967663788608921</v>
       </c>
       <c r="D99">
-        <v>0.01662558830111539</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03976277776722325</v>
+      </c>
+      <c r="E99">
+        <v>-0.02315639967620309</v>
+      </c>
+      <c r="F99">
+        <v>-0.00157741258528158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.004152584559482319</v>
+        <v>0.1251369697489999</v>
       </c>
       <c r="C100">
-        <v>0.1699390989082984</v>
+        <v>0.05478566589588888</v>
       </c>
       <c r="D100">
-        <v>-0.7665846255428577</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3429527123682263</v>
+      </c>
+      <c r="E100">
+        <v>0.889919750443928</v>
+      </c>
+      <c r="F100">
+        <v>0.1407006670708829</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01307642893986606</v>
+        <v>0.0275759928311887</v>
       </c>
       <c r="C101">
-        <v>0.02779639441196894</v>
+        <v>-0.008110690635827476</v>
       </c>
       <c r="D101">
-        <v>0.006919914872889015</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03175982826224094</v>
+      </c>
+      <c r="E101">
+        <v>-0.01071070065344591</v>
+      </c>
+      <c r="F101">
+        <v>0.01170169140861577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
